--- a/2022/Dates.xlsx
+++ b/2022/Dates.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Intern Roster\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90E2CB2-F1EA-4437-8E66-64D5AFE1BD9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8802781-E3B9-47EF-A399-8CC695E9F9F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24900" windowHeight="15120" xr2:uid="{DF5EB6D6-249E-4F19-9568-0E789C7D4A9B}"/>
+    <workbookView xWindow="-27990" yWindow="15" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{DF5EB6D6-249E-4F19-9568-0E789C7D4A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$C$365</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$1:$C$115</definedName>
+  </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="87">
   <si>
     <t>Monday</t>
   </si>
@@ -248,6 +255,45 @@
   <si>
     <t>Box</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>WE</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Good Fri</t>
+  </si>
+  <si>
+    <t>East Mon</t>
+  </si>
+  <si>
+    <t>Anzac</t>
+  </si>
+  <si>
+    <t>Queens</t>
+  </si>
+  <si>
+    <t>Melb Cup</t>
+  </si>
+  <si>
+    <t>Boxing</t>
+  </si>
+  <si>
+    <t>Xmas Obs</t>
+  </si>
+  <si>
+    <t>We/Hol</t>
+  </si>
+  <si>
+    <t>Num</t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -510,6 +556,8 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871342F0-77E6-480D-A5E7-13F4B5851A1A}">
   <dimension ref="A1:T365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5900,4 +5948,4723 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07871C6D-6D6B-469F-84AF-1275A352C934}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C366"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A266" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B365"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>44564</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>44565</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>44566</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>44567</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>44568</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>44569</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>44570</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>44571</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>44572</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>44573</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>44574</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>44575</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>44576</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>44577</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>44578</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>44579</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>44580</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>44581</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>44582</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>44583</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>44584</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>44585</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>44586</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>44587</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>44588</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>44589</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>44590</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>44591</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>44592</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>44593</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>44594</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>44595</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>44596</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>44597</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>44598</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>44599</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>44600</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>44601</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>44602</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>44603</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>44604</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>44605</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>44606</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
+        <v>44607</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
+        <v>44608</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
+        <v>44609</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>44610</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>44611</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>44612</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>44613</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>44614</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>44615</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>44616</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
+        <v>44617</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>44618</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>44619</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>44620</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
+        <v>44621</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
+        <v>44622</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>44623</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
+        <v>44624</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>44625</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>44626</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>44627</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="40">
+        <v>44628</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="40">
+        <v>44629</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
+        <v>44630</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="40">
+        <v>44631</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="40">
+        <v>44632</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="40">
+        <v>44633</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="40">
+        <v>44634</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="40">
+        <v>44635</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="40">
+        <v>44636</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="40">
+        <v>44637</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="40">
+        <v>44638</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>44639</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>44640</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="40">
+        <v>44641</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="40">
+        <v>44642</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>44643</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
+        <v>44644</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>44645</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
+        <v>44646</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>44647</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>44648</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>44649</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>44650</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="40">
+        <v>44651</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="40">
+        <v>44652</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="40">
+        <v>44653</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="40">
+        <v>44654</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="40">
+        <v>44655</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="40">
+        <v>44656</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="40">
+        <v>44657</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
+        <v>44658</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
+        <v>44659</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
+        <v>44660</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
+        <v>44661</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <v>44662</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <v>44663</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="40">
+        <v>44664</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
+        <v>44665</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="40">
+        <v>44666</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="40">
+        <v>44667</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
+        <v>44668</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="40">
+        <v>44669</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
+        <v>44670</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
+        <v>44671</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
+        <v>44672</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="40">
+        <v>44673</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="40">
+        <v>44674</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="40">
+        <v>44675</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C113" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="40">
+        <v>44676</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="40">
+        <v>44677</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="40">
+        <v>44678</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="40">
+        <v>44679</v>
+      </c>
+      <c r="B117" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="40">
+        <v>44680</v>
+      </c>
+      <c r="B118" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="40">
+        <v>44681</v>
+      </c>
+      <c r="B119" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B120" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C120" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="40">
+        <v>44683</v>
+      </c>
+      <c r="B121" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="40">
+        <v>44684</v>
+      </c>
+      <c r="B122" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="40">
+        <v>44685</v>
+      </c>
+      <c r="B123" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="40">
+        <v>44686</v>
+      </c>
+      <c r="B124" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="40">
+        <v>44687</v>
+      </c>
+      <c r="B125" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="40">
+        <v>44688</v>
+      </c>
+      <c r="B126" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="40">
+        <v>44689</v>
+      </c>
+      <c r="B127" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C127" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="40">
+        <v>44690</v>
+      </c>
+      <c r="B128" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="40">
+        <v>44691</v>
+      </c>
+      <c r="B129" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="40">
+        <v>44692</v>
+      </c>
+      <c r="B130" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="40">
+        <v>44693</v>
+      </c>
+      <c r="B131" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="40">
+        <v>44694</v>
+      </c>
+      <c r="B132" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="40">
+        <v>44695</v>
+      </c>
+      <c r="B133" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="40">
+        <v>44696</v>
+      </c>
+      <c r="B134" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C134" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="40">
+        <v>44697</v>
+      </c>
+      <c r="B135" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="40">
+        <v>44698</v>
+      </c>
+      <c r="B136" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="40">
+        <v>44699</v>
+      </c>
+      <c r="B137" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="40">
+        <v>44700</v>
+      </c>
+      <c r="B138" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="40">
+        <v>44701</v>
+      </c>
+      <c r="B139" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="40">
+        <v>44702</v>
+      </c>
+      <c r="B140" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="40">
+        <v>44703</v>
+      </c>
+      <c r="B141" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C141" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="40">
+        <v>44704</v>
+      </c>
+      <c r="B142" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="40">
+        <v>44705</v>
+      </c>
+      <c r="B143" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="40">
+        <v>44706</v>
+      </c>
+      <c r="B144" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="40">
+        <v>44707</v>
+      </c>
+      <c r="B145" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="40">
+        <v>44708</v>
+      </c>
+      <c r="B146" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="40">
+        <v>44709</v>
+      </c>
+      <c r="B147" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="40">
+        <v>44710</v>
+      </c>
+      <c r="B148" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="40">
+        <v>44711</v>
+      </c>
+      <c r="B149" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="40">
+        <v>44712</v>
+      </c>
+      <c r="B150" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="40">
+        <v>44713</v>
+      </c>
+      <c r="B151" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="40">
+        <v>44714</v>
+      </c>
+      <c r="B152" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="40">
+        <v>44715</v>
+      </c>
+      <c r="B153" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="40">
+        <v>44716</v>
+      </c>
+      <c r="B154" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="40">
+        <v>44717</v>
+      </c>
+      <c r="B155" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C155" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="40">
+        <v>44718</v>
+      </c>
+      <c r="B156" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="40">
+        <v>44719</v>
+      </c>
+      <c r="B157" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="40">
+        <v>44720</v>
+      </c>
+      <c r="B158" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="40">
+        <v>44721</v>
+      </c>
+      <c r="B159" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="40">
+        <v>44722</v>
+      </c>
+      <c r="B160" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="40">
+        <v>44723</v>
+      </c>
+      <c r="B161" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="40">
+        <v>44724</v>
+      </c>
+      <c r="B162" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="40">
+        <v>44725</v>
+      </c>
+      <c r="B163" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="40">
+        <v>44726</v>
+      </c>
+      <c r="B164" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="40">
+        <v>44727</v>
+      </c>
+      <c r="B165" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="40">
+        <v>44728</v>
+      </c>
+      <c r="B166" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="40">
+        <v>44729</v>
+      </c>
+      <c r="B167" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="40">
+        <v>44730</v>
+      </c>
+      <c r="B168" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="40">
+        <v>44731</v>
+      </c>
+      <c r="B169" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="40">
+        <v>44732</v>
+      </c>
+      <c r="B170" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="40">
+        <v>44733</v>
+      </c>
+      <c r="B171" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="40">
+        <v>44734</v>
+      </c>
+      <c r="B172" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="40">
+        <v>44735</v>
+      </c>
+      <c r="B173" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="40">
+        <v>44736</v>
+      </c>
+      <c r="B174" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="40">
+        <v>44737</v>
+      </c>
+      <c r="B175" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="40">
+        <v>44738</v>
+      </c>
+      <c r="B176" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C176" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="40">
+        <v>44739</v>
+      </c>
+      <c r="B177" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="40">
+        <v>44740</v>
+      </c>
+      <c r="B178" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="40">
+        <v>44741</v>
+      </c>
+      <c r="B179" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="40">
+        <v>44742</v>
+      </c>
+      <c r="B180" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B181" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="40">
+        <v>44744</v>
+      </c>
+      <c r="B182" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="40">
+        <v>44745</v>
+      </c>
+      <c r="B183" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C183" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="40">
+        <v>44746</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="40">
+        <v>44747</v>
+      </c>
+      <c r="B185" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="40">
+        <v>44748</v>
+      </c>
+      <c r="B186" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="40">
+        <v>44749</v>
+      </c>
+      <c r="B187" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="40">
+        <v>44750</v>
+      </c>
+      <c r="B188" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="40">
+        <v>44751</v>
+      </c>
+      <c r="B189" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="40">
+        <v>44752</v>
+      </c>
+      <c r="B190" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C190" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="40">
+        <v>44753</v>
+      </c>
+      <c r="B191" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="40">
+        <v>44754</v>
+      </c>
+      <c r="B192" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="40">
+        <v>44755</v>
+      </c>
+      <c r="B193" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="40">
+        <v>44756</v>
+      </c>
+      <c r="B194" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="40">
+        <v>44757</v>
+      </c>
+      <c r="B195" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="40">
+        <v>44758</v>
+      </c>
+      <c r="B196" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="40">
+        <v>44759</v>
+      </c>
+      <c r="B197" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C197" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="40">
+        <v>44760</v>
+      </c>
+      <c r="B198" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="40">
+        <v>44761</v>
+      </c>
+      <c r="B199" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="40">
+        <v>44762</v>
+      </c>
+      <c r="B200" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="40">
+        <v>44763</v>
+      </c>
+      <c r="B201" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="40">
+        <v>44764</v>
+      </c>
+      <c r="B202" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="40">
+        <v>44765</v>
+      </c>
+      <c r="B203" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="40">
+        <v>44766</v>
+      </c>
+      <c r="B204" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="40">
+        <v>44767</v>
+      </c>
+      <c r="B205" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="40">
+        <v>44768</v>
+      </c>
+      <c r="B206" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="40">
+        <v>44769</v>
+      </c>
+      <c r="B207" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="40">
+        <v>44770</v>
+      </c>
+      <c r="B208" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="40">
+        <v>44771</v>
+      </c>
+      <c r="B209" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="40">
+        <v>44772</v>
+      </c>
+      <c r="B210" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="40">
+        <v>44773</v>
+      </c>
+      <c r="B211" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B212" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="40">
+        <v>44775</v>
+      </c>
+      <c r="B213" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="40">
+        <v>44776</v>
+      </c>
+      <c r="B214" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="40">
+        <v>44777</v>
+      </c>
+      <c r="B215" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="40">
+        <v>44778</v>
+      </c>
+      <c r="B216" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="40">
+        <v>44779</v>
+      </c>
+      <c r="B217" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="40">
+        <v>44780</v>
+      </c>
+      <c r="B218" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="40">
+        <v>44781</v>
+      </c>
+      <c r="B219" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="40">
+        <v>44782</v>
+      </c>
+      <c r="B220" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="40">
+        <v>44783</v>
+      </c>
+      <c r="B221" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="40">
+        <v>44784</v>
+      </c>
+      <c r="B222" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="40">
+        <v>44785</v>
+      </c>
+      <c r="B223" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="40">
+        <v>44786</v>
+      </c>
+      <c r="B224" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="40">
+        <v>44787</v>
+      </c>
+      <c r="B225" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C225" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="40">
+        <v>44788</v>
+      </c>
+      <c r="B226" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="40">
+        <v>44789</v>
+      </c>
+      <c r="B227" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="40">
+        <v>44790</v>
+      </c>
+      <c r="B228" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="40">
+        <v>44791</v>
+      </c>
+      <c r="B229" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="40">
+        <v>44792</v>
+      </c>
+      <c r="B230" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="40">
+        <v>44793</v>
+      </c>
+      <c r="B231" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="40">
+        <v>44794</v>
+      </c>
+      <c r="B232" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C232" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="40">
+        <v>44795</v>
+      </c>
+      <c r="B233" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="40">
+        <v>44796</v>
+      </c>
+      <c r="B234" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="40">
+        <v>44797</v>
+      </c>
+      <c r="B235" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="40">
+        <v>44798</v>
+      </c>
+      <c r="B236" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="40">
+        <v>44799</v>
+      </c>
+      <c r="B237" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="40">
+        <v>44800</v>
+      </c>
+      <c r="B238" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="40">
+        <v>44801</v>
+      </c>
+      <c r="B239" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C239" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="40">
+        <v>44802</v>
+      </c>
+      <c r="B240" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="40">
+        <v>44803</v>
+      </c>
+      <c r="B241" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="40">
+        <v>44804</v>
+      </c>
+      <c r="B242" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B243" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="40">
+        <v>44806</v>
+      </c>
+      <c r="B244" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="40">
+        <v>44807</v>
+      </c>
+      <c r="B245" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="40">
+        <v>44808</v>
+      </c>
+      <c r="B246" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C246" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="40">
+        <v>44809</v>
+      </c>
+      <c r="B247" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="40">
+        <v>44810</v>
+      </c>
+      <c r="B248" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="40">
+        <v>44811</v>
+      </c>
+      <c r="B249" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="40">
+        <v>44812</v>
+      </c>
+      <c r="B250" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="40">
+        <v>44813</v>
+      </c>
+      <c r="B251" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="40">
+        <v>44814</v>
+      </c>
+      <c r="B252" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="40">
+        <v>44815</v>
+      </c>
+      <c r="B253" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C253" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="40">
+        <v>44816</v>
+      </c>
+      <c r="B254" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="40">
+        <v>44817</v>
+      </c>
+      <c r="B255" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="40">
+        <v>44818</v>
+      </c>
+      <c r="B256" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="40">
+        <v>44819</v>
+      </c>
+      <c r="B257" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="40">
+        <v>44820</v>
+      </c>
+      <c r="B258" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="40">
+        <v>44821</v>
+      </c>
+      <c r="B259" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="40">
+        <v>44822</v>
+      </c>
+      <c r="B260" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C260" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="40">
+        <v>44823</v>
+      </c>
+      <c r="B261" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="40">
+        <v>44824</v>
+      </c>
+      <c r="B262" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="40">
+        <v>44825</v>
+      </c>
+      <c r="B263" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="40">
+        <v>44826</v>
+      </c>
+      <c r="B264" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="40">
+        <v>44827</v>
+      </c>
+      <c r="B265" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="40">
+        <v>44828</v>
+      </c>
+      <c r="B266" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="40">
+        <v>44829</v>
+      </c>
+      <c r="B267" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="40">
+        <v>44830</v>
+      </c>
+      <c r="B268" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="40">
+        <v>44831</v>
+      </c>
+      <c r="B269" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="40">
+        <v>44832</v>
+      </c>
+      <c r="B270" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="40">
+        <v>44833</v>
+      </c>
+      <c r="B271" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="40">
+        <v>44834</v>
+      </c>
+      <c r="B272" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C272" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B273" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="40">
+        <v>44836</v>
+      </c>
+      <c r="B274" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C274" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="40">
+        <v>44837</v>
+      </c>
+      <c r="B275" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="40">
+        <v>44838</v>
+      </c>
+      <c r="B276" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="40">
+        <v>44839</v>
+      </c>
+      <c r="B277" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="40">
+        <v>44840</v>
+      </c>
+      <c r="B278" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="40">
+        <v>44841</v>
+      </c>
+      <c r="B279" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="40">
+        <v>44842</v>
+      </c>
+      <c r="B280" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="40">
+        <v>44843</v>
+      </c>
+      <c r="B281" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C281" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="40">
+        <v>44844</v>
+      </c>
+      <c r="B282" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="40">
+        <v>44845</v>
+      </c>
+      <c r="B283" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="40">
+        <v>44846</v>
+      </c>
+      <c r="B284" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="40">
+        <v>44847</v>
+      </c>
+      <c r="B285" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="40">
+        <v>44848</v>
+      </c>
+      <c r="B286" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="40">
+        <v>44849</v>
+      </c>
+      <c r="B287" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="40">
+        <v>44850</v>
+      </c>
+      <c r="B288" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C288" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="40">
+        <v>44851</v>
+      </c>
+      <c r="B289" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="40">
+        <v>44852</v>
+      </c>
+      <c r="B290" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="40">
+        <v>44853</v>
+      </c>
+      <c r="B291" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="40">
+        <v>44854</v>
+      </c>
+      <c r="B292" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="40">
+        <v>44855</v>
+      </c>
+      <c r="B293" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="40">
+        <v>44856</v>
+      </c>
+      <c r="B294" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C294" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="40">
+        <v>44857</v>
+      </c>
+      <c r="B295" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C295" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="40">
+        <v>44858</v>
+      </c>
+      <c r="B296" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="40">
+        <v>44859</v>
+      </c>
+      <c r="B297" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="40">
+        <v>44860</v>
+      </c>
+      <c r="B298" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="40">
+        <v>44861</v>
+      </c>
+      <c r="B299" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="40">
+        <v>44862</v>
+      </c>
+      <c r="B300" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="40">
+        <v>44863</v>
+      </c>
+      <c r="B301" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C301" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="40">
+        <v>44864</v>
+      </c>
+      <c r="B302" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="40">
+        <v>44865</v>
+      </c>
+      <c r="B303" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B304" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C304" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="40">
+        <v>44867</v>
+      </c>
+      <c r="B305" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="40">
+        <v>44868</v>
+      </c>
+      <c r="B306" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="40">
+        <v>44869</v>
+      </c>
+      <c r="B307" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="40">
+        <v>44870</v>
+      </c>
+      <c r="B308" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C308" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="40">
+        <v>44871</v>
+      </c>
+      <c r="B309" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C309" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="40">
+        <v>44872</v>
+      </c>
+      <c r="B310" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="40">
+        <v>44873</v>
+      </c>
+      <c r="B311" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="40">
+        <v>44874</v>
+      </c>
+      <c r="B312" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="40">
+        <v>44875</v>
+      </c>
+      <c r="B313" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="40">
+        <v>44876</v>
+      </c>
+      <c r="B314" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="40">
+        <v>44877</v>
+      </c>
+      <c r="B315" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C315" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="40">
+        <v>44878</v>
+      </c>
+      <c r="B316" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C316" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="40">
+        <v>44879</v>
+      </c>
+      <c r="B317" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="40">
+        <v>44880</v>
+      </c>
+      <c r="B318" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="40">
+        <v>44881</v>
+      </c>
+      <c r="B319" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="40">
+        <v>44882</v>
+      </c>
+      <c r="B320" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="40">
+        <v>44883</v>
+      </c>
+      <c r="B321" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="40">
+        <v>44884</v>
+      </c>
+      <c r="B322" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C322" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="40">
+        <v>44885</v>
+      </c>
+      <c r="B323" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C323" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="40">
+        <v>44886</v>
+      </c>
+      <c r="B324" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="40">
+        <v>44887</v>
+      </c>
+      <c r="B325" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A326" s="40">
+        <v>44888</v>
+      </c>
+      <c r="B326" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="40">
+        <v>44889</v>
+      </c>
+      <c r="B327" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="40">
+        <v>44890</v>
+      </c>
+      <c r="B328" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="40">
+        <v>44891</v>
+      </c>
+      <c r="B329" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C329" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="40">
+        <v>44892</v>
+      </c>
+      <c r="B330" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C330" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="40">
+        <v>44893</v>
+      </c>
+      <c r="B331" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="40">
+        <v>44894</v>
+      </c>
+      <c r="B332" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="40">
+        <v>44895</v>
+      </c>
+      <c r="B333" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B334" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="40">
+        <v>44897</v>
+      </c>
+      <c r="B335" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="40">
+        <v>44898</v>
+      </c>
+      <c r="B336" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C336" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="40">
+        <v>44899</v>
+      </c>
+      <c r="B337" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C337" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="40">
+        <v>44900</v>
+      </c>
+      <c r="B338" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="40">
+        <v>44901</v>
+      </c>
+      <c r="B339" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="40">
+        <v>44902</v>
+      </c>
+      <c r="B340" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A341" s="40">
+        <v>44903</v>
+      </c>
+      <c r="B341" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="40">
+        <v>44904</v>
+      </c>
+      <c r="B342" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="40">
+        <v>44905</v>
+      </c>
+      <c r="B343" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C343" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="40">
+        <v>44906</v>
+      </c>
+      <c r="B344" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C344" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="40">
+        <v>44907</v>
+      </c>
+      <c r="B345" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="40">
+        <v>44908</v>
+      </c>
+      <c r="B346" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="40">
+        <v>44909</v>
+      </c>
+      <c r="B347" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="40">
+        <v>44910</v>
+      </c>
+      <c r="B348" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="40">
+        <v>44911</v>
+      </c>
+      <c r="B349" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="40">
+        <v>44912</v>
+      </c>
+      <c r="B350" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C350" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="40">
+        <v>44913</v>
+      </c>
+      <c r="B351" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C351" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="40">
+        <v>44914</v>
+      </c>
+      <c r="B352" s="41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A353" s="40">
+        <v>44915</v>
+      </c>
+      <c r="B353" s="41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="40">
+        <v>44916</v>
+      </c>
+      <c r="B354" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="40">
+        <v>44917</v>
+      </c>
+      <c r="B355" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="40">
+        <v>44918</v>
+      </c>
+      <c r="B356" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="40">
+        <v>44919</v>
+      </c>
+      <c r="B357" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C357" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="40">
+        <v>44920</v>
+      </c>
+      <c r="B358" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="40">
+        <v>44921</v>
+      </c>
+      <c r="B359" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="40">
+        <v>44922</v>
+      </c>
+      <c r="B360" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C360" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="40">
+        <v>44923</v>
+      </c>
+      <c r="B361" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A362" s="40">
+        <v>44924</v>
+      </c>
+      <c r="B362" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="40">
+        <v>44925</v>
+      </c>
+      <c r="B363" s="41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B364" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C364" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B365" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C365" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="40"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:C365" xr:uid="{879325E9-97D8-464B-BA96-46057EC61D61}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="WE"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56B0CC29-368F-48C6-80DD-0C7D9E2ACB81}">
+  <dimension ref="A1:C115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>44569</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>44570</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>44576</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>44577</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>44583</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>44584</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>44587</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>44590</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>44591</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>44597</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="40">
+        <v>44598</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="40">
+        <v>44604</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="40">
+        <v>44605</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="40">
+        <v>44611</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>44612</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="40">
+        <v>44618</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="40">
+        <v>44619</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="40">
+        <v>44625</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>44626</v>
+      </c>
+      <c r="B20" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="40">
+        <v>44632</v>
+      </c>
+      <c r="B21" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="40">
+        <v>44633</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="40">
+        <v>44634</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="37">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="40">
+        <v>44639</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="40">
+        <v>44640</v>
+      </c>
+      <c r="B25" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="40">
+        <v>44646</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="40">
+        <v>44647</v>
+      </c>
+      <c r="B27" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="40">
+        <v>44653</v>
+      </c>
+      <c r="B28" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="40">
+        <v>44654</v>
+      </c>
+      <c r="B29" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="40">
+        <v>44660</v>
+      </c>
+      <c r="B30" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="40">
+        <v>44661</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="40">
+        <v>44666</v>
+      </c>
+      <c r="B32" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="37">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="40">
+        <v>44667</v>
+      </c>
+      <c r="B33" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="40">
+        <v>44668</v>
+      </c>
+      <c r="B34" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="40">
+        <v>44669</v>
+      </c>
+      <c r="B35" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="37">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="40">
+        <v>44674</v>
+      </c>
+      <c r="B36" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="40">
+        <v>44675</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="40">
+        <v>44676</v>
+      </c>
+      <c r="B38" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="40">
+        <v>44681</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="40">
+        <v>44682</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="40">
+        <v>44688</v>
+      </c>
+      <c r="B41" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="40">
+        <v>44689</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="40">
+        <v>44695</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="40">
+        <v>44696</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="40">
+        <v>44702</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="40">
+        <v>44703</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="40">
+        <v>44709</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="40">
+        <v>44710</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="40">
+        <v>44716</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="40">
+        <v>44717</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="40">
+        <v>44723</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="40">
+        <v>44724</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="40">
+        <v>44725</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="37">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="40">
+        <v>44730</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
+        <v>44731</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="40">
+        <v>44737</v>
+      </c>
+      <c r="B56" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="40">
+        <v>44738</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="40">
+        <v>44744</v>
+      </c>
+      <c r="B58" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="40">
+        <v>44745</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="40">
+        <v>44751</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="40">
+        <v>44752</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="40">
+        <v>44758</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="40">
+        <v>44759</v>
+      </c>
+      <c r="B63" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="40">
+        <v>44765</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="40">
+        <v>44766</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="40">
+        <v>44772</v>
+      </c>
+      <c r="B66" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="40">
+        <v>44773</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="40">
+        <v>44779</v>
+      </c>
+      <c r="B68" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="40">
+        <v>44780</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="40">
+        <v>44786</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="40">
+        <v>44787</v>
+      </c>
+      <c r="B71" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="40">
+        <v>44793</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="40">
+        <v>44794</v>
+      </c>
+      <c r="B73" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="40">
+        <v>44800</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="40">
+        <v>44801</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="40">
+        <v>44807</v>
+      </c>
+      <c r="B76" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="40">
+        <v>44808</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>44814</v>
+      </c>
+      <c r="B78" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="40">
+        <v>44815</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="40">
+        <v>44821</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="40">
+        <v>44822</v>
+      </c>
+      <c r="B81" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="40">
+        <v>44828</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="40">
+        <v>44829</v>
+      </c>
+      <c r="B83" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="40">
+        <v>44834</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="37">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="40">
+        <v>44836</v>
+      </c>
+      <c r="B86" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="40">
+        <v>44842</v>
+      </c>
+      <c r="B87" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="40">
+        <v>44843</v>
+      </c>
+      <c r="B88" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="40">
+        <v>44849</v>
+      </c>
+      <c r="B89" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="40">
+        <v>44850</v>
+      </c>
+      <c r="B90" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="40">
+        <v>44856</v>
+      </c>
+      <c r="B91" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="40">
+        <v>44857</v>
+      </c>
+      <c r="B92" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="40">
+        <v>44863</v>
+      </c>
+      <c r="B93" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="40">
+        <v>44864</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B95" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="37">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="40">
+        <v>44870</v>
+      </c>
+      <c r="B96" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="40">
+        <v>44871</v>
+      </c>
+      <c r="B97" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="40">
+        <v>44877</v>
+      </c>
+      <c r="B98" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="40">
+        <v>44878</v>
+      </c>
+      <c r="B99" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="40">
+        <v>44884</v>
+      </c>
+      <c r="B100" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="40">
+        <v>44885</v>
+      </c>
+      <c r="B101" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="40">
+        <v>44891</v>
+      </c>
+      <c r="B102" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="40">
+        <v>44892</v>
+      </c>
+      <c r="B103" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="40">
+        <v>44898</v>
+      </c>
+      <c r="B104" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="40">
+        <v>44899</v>
+      </c>
+      <c r="B105" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="40">
+        <v>44905</v>
+      </c>
+      <c r="B106" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="40">
+        <v>44906</v>
+      </c>
+      <c r="B107" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="40">
+        <v>44912</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="40">
+        <v>44913</v>
+      </c>
+      <c r="B109" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="40">
+        <v>44919</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="40">
+        <v>44920</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="40">
+        <v>44921</v>
+      </c>
+      <c r="B112" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" s="37">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="40">
+        <v>44922</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C113" s="37">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E5FF4F-681B-4D53-8080-0BD4F57121B3}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="40">
+        <v>44587</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="40">
+        <v>44634</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="40">
+        <v>44666</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="40">
+        <v>44669</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="40">
+        <v>44676</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="40">
+        <v>44725</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="40">
+        <v>44834</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="40">
+        <v>44921</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="40">
+        <v>44922</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>